--- a/CEPAL/Produto 03/feature_importances.xlsx
+++ b/CEPAL/Produto 03/feature_importances.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\pibmunic\CEPAL\Produto 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068BF8D-DC51-4297-969B-0865FD62AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F971AA-1C84-4E44-8A44-7BB7981BE26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="feature_importances_catboost" sheetId="1" r:id="rId1"/>
+    <sheet name="feature_importances" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>feature_importances</t>
   </si>
@@ -55,99 +69,74 @@
     <t>ln_vlrcontrato</t>
   </si>
   <si>
-    <t>spl_contrato_3_0</t>
-  </si>
-  <si>
     <t>ln_contratos</t>
   </si>
   <si>
-    <t>spl_contrato_3_1</t>
-  </si>
-  <si>
-    <t>TESOURO</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_3</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_5</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_1</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_2</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_2</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_3</t>
-  </si>
-  <si>
-    <t>spl_contrato_3_2</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_4</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_5</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_0</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_4</t>
-  </si>
-  <si>
-    <t>spl_contrato_3_5</t>
-  </si>
-  <si>
-    <t>spl_contrato_3_3</t>
-  </si>
-  <si>
-    <t>spl_contrato_3_4</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_0</t>
-  </si>
-  <si>
-    <t>INDIRETA</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_1</t>
-  </si>
-  <si>
-    <t>INOVACAO</t>
-  </si>
-  <si>
-    <t>EMPRESA_PUBLICA</t>
-  </si>
-  <si>
-    <t>spl_contrato_3_6</t>
-  </si>
-  <si>
-    <t>spl_contrato_2_6</t>
-  </si>
-  <si>
-    <t>SOCIO_PJ</t>
-  </si>
-  <si>
-    <t>spl_contrato_4_6</t>
-  </si>
-  <si>
     <t>catboost</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Limite Inferior</t>
+  </si>
+  <si>
+    <t>Classificação de Risco</t>
+  </si>
+  <si>
+    <t>Limite Superior</t>
+  </si>
+  <si>
+    <t>Freq.</t>
+  </si>
+  <si>
+    <t>Percentil</t>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Freq. Acumulada</t>
+  </si>
+  <si>
+    <t>% Acumulado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +271,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +455,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +582,6 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -624,60 +623,81 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentagem" xfId="42" builtinId="5"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,6 +710,1106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Feature Importances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> do Catboost e Xgboost</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>feature_importances!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>catboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>feature_importances!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ln_filiais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ln_idade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ln_capsoc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ln_juros</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ln_sociosage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ln_carencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ln_amortizacao</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ln_vlrcontrato</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ln_vlrdesembolso</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ln_qtdsocios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ln_contratos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>feature_importances!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.48665500321155103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20986031925319701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6937312476242795E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0684928201256501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0679910182437903E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8185969418548899E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5076762569941E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1987889515466298E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8318054257187598E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7090275367363405E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0595466141108003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCA2-4CB0-95DA-4F8757571E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>feature_importances!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>feature_importances!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ln_filiais</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ln_idade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ln_capsoc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ln_juros</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ln_sociosage</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ln_carencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ln_amortizacao</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ln_vlrcontrato</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ln_vlrdesembolso</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ln_qtdsocios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ln_contratos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>feature_importances!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.84926199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7258260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0131962E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6954190000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4504510999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.916691E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1513414E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2706286000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7340096999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5613809999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6457220000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCA2-4CB0-95DA-4F8757571E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1848713712"/>
+        <c:axId val="1848712272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1848713712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848712272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1848712272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1848713712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2234251968503933E-2"/>
+          <c:y val="0.86700896762904633"/>
+          <c:w val="0.81830927384077001"/>
+          <c:h val="0.10521325459317585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4D9DF3-5AC7-D75C-8725-67B8BC402F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,324 +2109,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>48.6655003211551</v>
+        <v>0.48665500321155103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.84926199999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>20.986031925319701</v>
+        <v>0.20986031925319701</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.7258260000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3.6937312476242798</v>
+        <v>3.6937312476242795E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0131962E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>3.0684928201256501</v>
+        <v>3.0684928201256501E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.6954190000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0679910182437902</v>
+        <v>3.0679910182437903E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4504510999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2.81859694185489</v>
+        <v>2.8185969418548899E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.916691E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>2.5076762569940998</v>
+        <v>2.5076762569941E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.1513414E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>2.1987889515466299</v>
+        <v>2.1987889515466298E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2706286000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1.8318054257187599</v>
+        <v>1.8318054257187598E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.7340096999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1.2374648194348199</v>
+        <v>8.7090275367363405E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.5613809999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>1.17958642051909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.87090275367363401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.70821402901007502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.60595466141108001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.58903836627189698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.57291004260420597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.56306640160349397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.53721376537420695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.50041819248731201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.48630845382657201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.48192856488515001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.47881593836519099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.46829403769258299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.45852983613019199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.39209797001187002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.30424287215373103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.239409830955117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.199362092618033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.15518334808436399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2">
-        <v>6.8595106599769501E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4.6161309883137498E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1.0853994335518299E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6.8322834859225303E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
+        <v>6.0595466141108003E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.6457220000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D9C01-4B3E-4651-93B0-AB1BF44BA79D}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.6970000000000002E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C2</f>
+        <v>2.6970000000000002E-3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G2" s="10">
+        <f>F2</f>
+        <v>1050</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2/$G$10</f>
+        <v>8.3654673507759965E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.9650000000000002E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <f>E2</f>
+        <v>2.6970000000000002E-3</v>
+      </c>
+      <c r="E3" s="8">
+        <f>C3</f>
+        <v>2.9650000000000002E-3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3010</v>
+      </c>
+      <c r="G3" s="10">
+        <f>F3+G2</f>
+        <v>4060</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H10" si="0">G3/$G$10</f>
+        <v>3.2346473756333857E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <f>E3</f>
+        <v>2.9650000000000002E-3</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E10" si="1">C4</f>
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1968</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G10" si="2">F4+G3</f>
+        <v>6028</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8025749705216864E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.849E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <f>E4</f>
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>4.849E-3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>25266</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="2"/>
+        <v>31294</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24932279550017528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.3889999999999997E-3</v>
+      </c>
+      <c r="D6" s="8">
+        <f>E5</f>
+        <v>4.849E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>7.3889999999999997E-3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>13308</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="2"/>
+        <v>44602</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35534911883743903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.6770000000000007E-3</v>
+      </c>
+      <c r="D7" s="8">
+        <f>E6</f>
+        <v>7.3889999999999997E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6770000000000007E-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>18384</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="2"/>
+        <v>62986</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50181650148188284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.3067E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <f>E7</f>
+        <v>8.6770000000000007E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3067E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>31151</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>94137</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.137016</v>
+      </c>
+      <c r="D9" s="8">
+        <f>E8</f>
+        <v>1.3067E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.137016</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12552</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="2"/>
+        <v>106689</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85000318684470511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.82610499999999998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.82610499999999998</v>
+      </c>
+      <c r="F10" s="9">
+        <v>18827</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="2"/>
+        <v>125516</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/CEPAL/Produto 03/feature_importances.xlsx
+++ b/CEPAL/Produto 03/feature_importances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.franco\Documents\GitHub\pibmunic\CEPAL\Produto 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\pibmunic\CEPAL\Produto 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F971AA-1C84-4E44-8A44-7BB7981BE26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A0C0D-7FD5-4685-A80C-263880A02EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_importances" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -630,26 +630,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -701,6 +701,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4F4F4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -726,71 +731,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Feature Importances</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> do Catboost e Xgboost</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10419884478419614"/>
+          <c:y val="9.305941573167377E-2"/>
+          <c:w val="0.87064392251140132"/>
+          <c:h val="0.46635140862349711"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -811,7 +764,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4F4F4F"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -924,10 +877,14 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1106,7 +1063,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1122,16 +1079,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1175,7 +1132,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1776,15 +1733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2111,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63D9C01-4B3E-4651-93B0-AB1BF44BA79D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2304,7 @@
         <v>2.9650000000000002E-3</v>
       </c>
       <c r="D3" s="8">
-        <f>E2</f>
+        <f t="shared" ref="D3:D9" si="0">E2</f>
         <v>2.6970000000000002E-3</v>
       </c>
       <c r="E3" s="8">
@@ -2362,7 +2319,7 @@
         <v>4060</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H10" si="0">G3/$G$10</f>
+        <f t="shared" ref="H3:H10" si="1">G3/$G$10</f>
         <v>3.2346473756333857E-2</v>
       </c>
     </row>
@@ -2377,22 +2334,22 @@
         <v>4.0499999999999998E-3</v>
       </c>
       <c r="D4" s="8">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>2.9650000000000002E-3</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E10" si="1">C4</f>
+        <f t="shared" ref="E4:E10" si="2">C4</f>
         <v>4.0499999999999998E-3</v>
       </c>
       <c r="F4" s="9">
         <v>1968</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G10" si="2">F4+G3</f>
+        <f t="shared" ref="G4:G10" si="3">F4+G3</f>
         <v>6028</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8025749705216864E-2</v>
       </c>
     </row>
@@ -2407,22 +2364,22 @@
         <v>4.849E-3</v>
       </c>
       <c r="D5" s="8">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>4.0499999999999998E-3</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.849E-3</v>
       </c>
       <c r="F5" s="9">
         <v>25266</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31294</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24932279550017528</v>
       </c>
     </row>
@@ -2437,22 +2394,22 @@
         <v>7.3889999999999997E-3</v>
       </c>
       <c r="D6" s="8">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>4.849E-3</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3889999999999997E-3</v>
       </c>
       <c r="F6" s="9">
         <v>13308</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44602</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35534911883743903</v>
       </c>
     </row>
@@ -2467,22 +2424,22 @@
         <v>8.6770000000000007E-3</v>
       </c>
       <c r="D7" s="8">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>7.3889999999999997E-3</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6770000000000007E-3</v>
       </c>
       <c r="F7" s="9">
         <v>18384</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62986</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50181650148188284</v>
       </c>
     </row>
@@ -2497,22 +2454,22 @@
         <v>1.3067E-2</v>
       </c>
       <c r="D8" s="8">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>8.6770000000000007E-3</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3067E-2</v>
       </c>
       <c r="F8" s="9">
         <v>31151</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94137</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2527,22 +2484,22 @@
         <v>0.137016</v>
       </c>
       <c r="D9" s="8">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>1.3067E-2</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.137016</v>
       </c>
       <c r="F9" s="9">
         <v>12552</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106689</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85000318684470511</v>
       </c>
     </row>
@@ -2560,18 +2517,18 @@
         <v>1</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82610499999999998</v>
       </c>
       <c r="F10" s="9">
         <v>18827</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125516</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
